--- a/utils/folder_with_orders/format_russian_post/orders_format_russian_post.xlsx
+++ b/utils/folder_with_orders/format_russian_post/orders_format_russian_post.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">ADDRESSLINE</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t xml:space="preserve">TELADDRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMENSION_HEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMENSION_WIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMENSION_LENGTH</t>
   </si>
   <si>
     <t xml:space="preserve">357355, Ставропольский край, Предгорный р-н, поселок Пятигорский, ул Первомайская, д 5 кв 44</t>
@@ -261,14 +270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,9 +288,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -312,23 +324,32 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.252</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>8067631</v>
       </c>
       <c r="G2" s="7" t="n">
@@ -338,23 +359,32 @@
         <v>101000</v>
       </c>
       <c r="I2" s="8"/>
+      <c r="J2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>0.88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>7089125</v>
       </c>
       <c r="G3" s="7" t="n">
@@ -364,23 +394,32 @@
         <v>101000</v>
       </c>
       <c r="I3" s="8"/>
+      <c r="J3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.326</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>4322982</v>
       </c>
       <c r="G4" s="7" t="n">
@@ -390,23 +429,32 @@
         <v>101000</v>
       </c>
       <c r="I4" s="8"/>
+      <c r="J4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.794</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="10" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>2543521</v>
       </c>
       <c r="G5" s="7" t="n">
@@ -416,23 +464,32 @@
         <v>101000</v>
       </c>
       <c r="I5" s="8"/>
+      <c r="J5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.318</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="10" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>8240259</v>
       </c>
       <c r="G6" s="7" t="n">
@@ -442,23 +499,32 @@
         <v>101000</v>
       </c>
       <c r="I6" s="8"/>
+      <c r="J6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0.404</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="10" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>7765028</v>
       </c>
       <c r="G7" s="7" t="n">
@@ -468,27 +534,36 @@
         <v>101000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.416</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>5048137</v>
       </c>
       <c r="G8" s="7" t="n">
@@ -498,25 +573,34 @@
         <v>101000</v>
       </c>
       <c r="I8" s="11"/>
+      <c r="J8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0.536</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="10" t="n">
-        <f aca="false">RANDBETWEEN(1000000,9999999)</f>
+        <f aca="false">randbetween(1000000,9999999)</f>
         <v>6610758</v>
       </c>
       <c r="G9" s="7" t="n">
@@ -526,6 +610,15 @@
         <v>101000</v>
       </c>
       <c r="I9" s="8"/>
+      <c r="J9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
